--- a/StealAlive/Assets/Data/Sheet_ItemData/ItemData.xlsx
+++ b/StealAlive/Assets/Data/Sheet_ItemData/ItemData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\DreadPark\DreadPark\Assets\Data\Sheet_ItemData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\StealAlive\StealAlive\Assets\Data\Sheet_ItemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BC5392-F432-4A19-AF70-641DE3FE0C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FF50C8-E2D8-4F7F-B218-650D9614F988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47790" yWindow="3900" windowWidth="28800" windowHeight="15345" firstSheet="1" activeTab="6" xr2:uid="{A089F88F-A40E-458E-B5F3-BBB1443AAF3A}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="6" xr2:uid="{A089F88F-A40E-458E-B5F3-BBB1443AAF3A}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemClassification" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="305">
   <si>
     <t>Item ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1056,43 +1056,95 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Apo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zombie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>policed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mutant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RenovatedMutant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doberman</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shrepherd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scifi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Robot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gunner</t>
+    <t>강지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강도단</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아르냥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>히나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마시로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시부키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>린</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리코</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해둥이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피엔나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뿡댕이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이나리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠리미</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페토</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>치코</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골댕이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">우주를 머금은 뿡댕이 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뿌대이</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4385,77 +4437,179 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4DA786-AC75-417C-8639-646A9D429909}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>4</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>6</v>
+      </c>
+      <c r="K1">
+        <v>7</v>
+      </c>
+      <c r="L1">
+        <v>8</v>
+      </c>
+      <c r="M1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>282</v>
       </c>
-      <c r="B1">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>283</v>
       </c>
-      <c r="D1">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F1">
-        <v>100</v>
-      </c>
-      <c r="G1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>284</v>
       </c>
-      <c r="D2">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>289</v>
       </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G7" t="s">
+        <v>303</v>
+      </c>
+      <c r="I7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>291</v>
       </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>290</v>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
